--- a/static/databse/first.xlsx
+++ b/static/databse/first.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\مؤيد\Desktop\app_svg\app\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\مؤيد\Desktop\app_svg\app\static\databse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701CCE68-D08B-4109-BE22-4737DCEF2FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD055EB-72E1-4776-8FF8-B31B089FC7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{12C13FE3-4A7F-453C-AB2B-22C6B428F2FC}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
-  <si>
-    <t xml:space="preserve">DESCRIPTION </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
   <si>
     <t xml:space="preserve">room type </t>
   </si>
@@ -367,25 +364,142 @@
 Keep an eye out for a labelled door or a room number sign to help you identify the correct lab easily.</t>
   </si>
   <si>
-    <t>to reach the 1098 office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to go up to the first floor
+    <t>1044</t>
+  </si>
+  <si>
+    <t>To reach the office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to go up to the first floor.  
+After reaching the first floor, turn left immediately. Walk straight down the hallway; Office 1044 will be one of the last doors on your right. 
+Keep an eye out for a labelled door or a room number sign to help you identify the correct office easily.</t>
+  </si>
+  <si>
+    <t>1043</t>
+  </si>
+  <si>
+    <t>To reach the office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to go up to the first floor.
+After reaching the first floor, turn left immediately. Walk straight down the hallway; Office 1043 will be just before Office 1044, on your right side.
+Keep an eye out for a labelled door or a room number sign to help you identify the correct office easily.</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>To reach Office 1028, enter building, go to first floor, forward to glass door, left into Psychology Department corridor, after middle Office 1028 is on left side.</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>To reach Office 1027, enter building, go to first floor, forward to glass door, left into Psychology Department corridor, after middle Office 1027 is on left side.</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>To reach the office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to stay on the ground floor.
+after reaching the first floor, turn left, walk straight ahead down the main hallway. Office 1017 will be on your left side, just before you reach Office 1018.
+Keep an eye out for a labelled door or a room number sign to help you identify the correct office easily.</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>To reach the office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to stay on the ground floor.  
+after reaching the first floor, turn left and walk straight ahead down the main hallway. Office 1017 will be on your left side, just before you reach Office 1018.
+Keep an eye out for a labelled door or a room number sign to help you identify the correct office easily.</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>To reach the office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to stay on the ground floor.  
+after reaching the first floor, turn left and walk straight down the main hallway. After passing Office 1017, turn left, and you will find Office 1016 right in front of you.  
+Keep an eye out for a labelled door or a room number sign to help you identify the correct office easily.</t>
+  </si>
+  <si>
+    <t>1015</t>
+  </si>
+  <si>
+    <t>To reach the office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to stay on the ground floor.  
+after reaching the first floor, turn left and walk straight down the main hallway. After passing Office 1017 and Office 1043, you will find Office 1015 facing you.
+Keep an eye out for a labelled door or a room number sign to help you identify the correct office easily.</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>To reach the office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to stay on the ground floor.  
+after reaching the first floor, turn left and walk straight down the main hallway. After passing Office 1017 and Office 1043, turn right, you will find Office 1014 after passing Office 1015 in your left.
+Keep an eye out for a labelled door or a room number sign to help you identify the correct office easily.</t>
+  </si>
+  <si>
+    <t>1013</t>
+  </si>
+  <si>
+    <t>To reach the office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to stay on the ground floor.  
+after reaching the first floor, turn left and walk straight down the main hallway. After passing Office 1017 and Office 1043, turn right, you will find Office 1013 after passing Office 1015 and office 1014 in your left.
+Keep an eye out for a labelled door or a room number sign to help you identify the correct office easily.</t>
+  </si>
+  <si>
+    <t>1012</t>
+  </si>
+  <si>
+    <t>To reach Office 1012, first floor, glass door, left to Psychology Department, after Office 1011 find Office 1012 in small middle corridor.</t>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>To reach Office 1011, first floor, glass door, left to Psychology Department, corridor end, Office 1011 is on left side.</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>To reach the office number 1010 , start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to go up to the first floor. After reaching the first floor, Move a little towards the glass door on the first floor, which will be in front of you and near the stairs. Then look to the left and you will find a green door with the word "Psychology Department" written at the top. Open the door and move forward a little and you will find office number 1010 on the right at first.</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>To reach Office 1004, start at main entrance. Use elevator or stairs to first floor. Go forward to glass door, look left to green Psychology Department door, head into corridor, find Office 1004 on right side after middle.</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Same path as Office 1004. Office 1003 is located before Office 1004 in the same corridor.</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>To reach Office 1002, first floor, glass door, left to Psychology Department, continue inside corridor to its end, Office 1002 is on right side.</t>
+  </si>
+  <si>
+    <t>o reach the 1098 office, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to go up to the first floor
 After reaching the first floor, turn right immediately. Walk down the hallway, and you will pass by a few offices. The lab you are looking for will be located on your left side, just after the control room.
 Keep an eye out for a labelled door or a room number sign to help you identify the correct lab easily.</t>
   </si>
   <si>
+    <t xml:space="preserve">To reach the office 1048, start at the main entrance of the building. Once inside, you'll find the elevator and stairs nearby—feel free to use either to get to the first floor. After reaching the first floor, turn immediately left and walk down the corridor. After passing offices 1024 to 1020, proceed straight ahead. You'll find office 1048 on your right, opposite office 1021.
+Keep an eye out for a labelled door or a room number sign to help you identify the correct lab easily.
+</t>
+  </si>
+  <si>
     <t>room no.</t>
   </si>
   <si>
-    <t>To reach the office number 1010, start from the main entrance of the building. Once you enter, you’ll find both the elevator and a staircase nearby—feel free to use either one to go up to the first floor. After reaching the first floor, Move a little towards the glass door on the first floor, which will be in front of you and near the stairs. Then look to the left and you will find a green door with the word "Psychology Department" written at the top. Open the door and move forward a little and you will find office number 1010 on the right at first.</t>
-  </si>
-  <si>
-    <t>office</t>
+    <t>description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +651,17 @@
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="UICTFontTextStyleBody"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="UICTFontTextStyleBody"/>
     </font>
   </fonts>
   <fills count="33">
@@ -882,14 +1007,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment readingOrder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1266,830 +1391,1007 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513E22BB-5ADC-478D-8762-0992C61F5E5A}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A50" zoomScale="45" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="112.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.5" customWidth="1"/>
+    <col min="1" max="1" width="57" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.69921875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="158.4">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="158.4">
+      <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="57.6">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="158.4">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="158.4">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="172.8">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="158.4">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="172.8">
+      <c r="A10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="330.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2">
+      <c r="A12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="219.8">
+      <c r="A14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72">
+      <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="43.2">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="158.4">
+      <c r="A18" s="1">
+        <v>1115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="158.4">
+      <c r="A19" s="1">
+        <v>1114</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="158.4">
+      <c r="A20" s="1">
+        <v>1113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="158.4">
+      <c r="A21" s="1">
+        <v>1112</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="158.4">
+      <c r="A22" s="1">
+        <v>1111</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="158.4">
+      <c r="A23" s="1">
+        <v>1110</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="158.4">
+      <c r="A24" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="158.4">
+      <c r="A25" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="158.4">
+      <c r="A26" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="158.4">
+      <c r="A27" s="1">
+        <v>1106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="158.4">
+      <c r="A28" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="158.4">
+      <c r="A29" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="158.4">
+      <c r="A30" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="158.4">
+      <c r="A31" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="158.4">
+      <c r="A32" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="158.4">
+      <c r="A33" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="158.4">
+      <c r="A34" s="1">
+        <v>1099</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="158.4">
+      <c r="A35" s="1">
+        <v>1098</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="144">
+      <c r="A36" s="1">
+        <v>1097</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="158.4">
+      <c r="A37" s="1">
+        <v>1096</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="158.4">
+      <c r="A38" s="1">
+        <v>1095</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="115.2">
+      <c r="A39" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="115.2">
+      <c r="A40" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="115.2">
+      <c r="A41" s="1">
+        <v>1088</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="115.2">
+      <c r="A42" s="1">
+        <v>1087</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="115.2">
+      <c r="A43" s="1">
+        <v>1086</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="115.2">
+      <c r="A44" s="1">
+        <v>1085</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="115.2">
+      <c r="A45" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="86.4">
+      <c r="A46" s="1">
+        <v>1083</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="86.4">
+      <c r="A47" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="86.4">
+      <c r="A48" s="1">
+        <v>1081</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="158.4">
+      <c r="A49" s="1">
+        <v>1080</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="158.4">
+      <c r="A50" s="1">
+        <v>1079</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="158.4">
+      <c r="A51" s="1">
+        <v>1078</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="144">
+      <c r="A52" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="144">
+      <c r="A53" s="1">
+        <v>1075</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="129.6">
+      <c r="A54" s="1">
+        <v>1074</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="129.6">
+      <c r="A55" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="129.6">
+      <c r="A56" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="129.6">
+      <c r="A57" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="129.6">
+      <c r="A58" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="129.6">
+      <c r="A59" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="129.6">
+      <c r="A60" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="129.6">
+      <c r="A61" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="129.6">
+      <c r="A62" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="187.2">
+      <c r="A63" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="187.2">
+      <c r="A64" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="187.2">
+      <c r="A65" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="201.6">
+      <c r="A66" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="172.8">
+      <c r="A67" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="172.8">
+      <c r="A68" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="129.6">
+      <c r="A69" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="129.6">
+      <c r="A70" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="129.6">
+      <c r="A71" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="115.2">
+      <c r="A72" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="144">
+      <c r="A73" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="253.6">
+      <c r="A74" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="219.8">
+      <c r="A75" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="236.7">
+      <c r="A76" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="236.7">
+      <c r="A77" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="219.8">
+      <c r="A78" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="236.7">
+      <c r="A79" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="172.8">
+      <c r="A80" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="187.2">
+      <c r="A81" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="201.6">
+      <c r="A82" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="201.6">
+      <c r="A83" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="187.2">
+      <c r="A84" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="187.2">
+      <c r="A85" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="219.8">
+      <c r="A86" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1009</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="219.8">
+      <c r="A87" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1008</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="236.7">
+      <c r="A88" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="236.7">
+      <c r="A89" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="236.7">
+      <c r="A90" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1028</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1029</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1030</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1031</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1032</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1034</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1024</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1023</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1022</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1020</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1019</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1051</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1050</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1049</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1048</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1047</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1045</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1040</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1039</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1038</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1037</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1081</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1082</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1083</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1084</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>1085</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1086</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1087</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1088</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1089</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1090</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1066</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1067</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1068</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>1069</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>1070</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>1071</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>1072</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>1073</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>1074</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>1075</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>1076</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="72" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>1097</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>1098</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>1099</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>1100</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>1101</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>1102</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>1103</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>1104</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>1105</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>1106</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>1107</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>1108</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>1109</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>1110</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>1112</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>1113</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>1114</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>1115</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>1078</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>1079</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>1080</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>1095</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>1096</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>3</v>
+      <c r="C90" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
